--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -91077,7 +91077,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -91413,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91467,7 +91469,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91521,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91575,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91629,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1628"/>
+  <dimension ref="A1:R1629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91641,6 +91641,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>467.4500122070312</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>472</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>463</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>470.2999877929688</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>470.2999877929688</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>220903</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1629"/>
+  <dimension ref="A1:R1630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91181,7 +91181,7 @@
         <v>23</v>
       </c>
       <c r="O1620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1620" t="n">
         <v>0</v>
@@ -91693,7 +91693,63 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>478</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>470.4500122070312</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>470.4500122070312</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>171214</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1630"/>
+  <dimension ref="A1:R1637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91749,7 +91749,387 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>472</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>490.75</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>466</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>479.8500061035156</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>479.8500061035156</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>595948</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>482</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>492.6000061035156</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>473.1000061035156</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>476.1499938964844</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>476.1499938964844</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>323461</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>471.1499938964844</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>489.75</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>467.7999877929688</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>329583</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>489.8500061035156</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>501.7000122070312</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>478.6000061035156</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>490.5499877929688</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>490.5499877929688</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>465080</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>491.4500122070312</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>492.9500122070312</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>481.4500122070312</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>481.4500122070312</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>145042</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>481.4500122070312</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>493.25</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>476.5</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>489.6499938964844</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>489.6499938964844</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>266057</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>490.0499877929688</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>490</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>525.0499877929688</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>525.0499877929688</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>1494656</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -91805,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>1</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91859,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91913,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -91967,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92021,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92075,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92129,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1637"/>
+  <dimension ref="A1:R1642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92145,6 +92145,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>537.9000244140625</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>537.9000244140625</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>1127817</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>554.7000122070312</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>535.5999755859375</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>545.2000122070312</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>545.2000122070312</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>545.1500244140625</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>546.7000122070312</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>535.5499877929688</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>537.5</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>537.5</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>165387</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>538.3499755859375</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>541.9500122070312</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>513.0999755859375</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>354379</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>520</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>529</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>515.9500122070312</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>520.25</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>520.25</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>216924</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1642"/>
+  <dimension ref="A1:R1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92197,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92243,7 +92245,7 @@
         <v>27</v>
       </c>
       <c r="O1639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1639" t="n">
         <v>0</v>
@@ -92251,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92305,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92359,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92413,7 +92421,495 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>526.25</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>526.7999877929688</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>516.0999755859375</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>521.0999755859375</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>518.6825561523438</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>177368</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>523.0499877929688</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>533.9000244140625</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>512</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>528.9500122070312</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>526.4961547851562</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>239345</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>534</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>534</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>505.5499877929688</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>525.0999755859375</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>522.6640014648438</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>245712</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>529.2000122070312</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>549.25</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>524.5499877929688</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>538.9000244140625</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>536.4000244140625</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>446913</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>545</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>545</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>525.5499877929688</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>530.9500122070312</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>530.9500122070312</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>121288</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>533.8499755859375</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>539</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>515</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>524.75</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>524.75</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>328979</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>525</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>543.7000122070312</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>534.5</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>534.5</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>287748</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>533.7000122070312</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>536.3499755859375</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>520.3499755859375</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>523.6500244140625</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>523.6500244140625</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>151144</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>523</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>525</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>509.1000061035156</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>512.7000122070312</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>512.7000122070312</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>243964</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1651"/>
+  <dimension ref="A1:R1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92477,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92531,7 +92533,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92585,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92639,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92693,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92747,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92801,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92855,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92909,7 +92925,549 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>512.7000122070312</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>532.4500122070312</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>505</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>526.5</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>526.5</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>556936</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>523</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>524.9500122070312</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>495</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>517.75</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>517.75</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>509072</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>526.4500122070312</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>511</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>516.7000122070312</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>516.7000122070312</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>194479</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>522</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>502.9500122070312</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>515.2999877929688</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>515.2999877929688</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>142956</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>543</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>518</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>535.1500244140625</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>535.1500244140625</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>496490</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>548.9500122070312</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>549</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>527.3499755859375</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>530.6500244140625</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>530.6500244140625</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>212978</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>530</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>530</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>521.25</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>524</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>524</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>176727</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>524</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>530.7999877929688</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>513.1500244140625</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>514.2000122070312</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>514.2000122070312</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>168814</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>520.9000244140625</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>520.9000244140625</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>508</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>509.6000061035156</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>509.6000061035156</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>128831</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>513.0999755859375</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>524.4000244140625</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>506.3500061035156</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>514.5499877929688</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>514.5499877929688</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>108588</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1661"/>
+  <dimension ref="A1:R1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92981,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93035,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93089,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93143,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93197,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93251,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93305,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93359,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93413,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93467,7 +93485,279 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>501</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>504.7000122070312</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>482.2000122070312</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>484.75</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>484.75</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>380189</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>499.75</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>499.75</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>479.1000061035156</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>479.1000061035156</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>101503</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>481.2999877929688</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>493.25</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>478</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>490.8999938964844</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>490.8999938964844</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>91751</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>498</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>501.9500122070312</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>483.2000122070312</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>485.3999938964844</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>485.3999938964844</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>83877</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>488.2999877929688</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>493.9500122070312</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>487.5499877929688</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>487.5499877929688</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>61120</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1666"/>
+  <dimension ref="A1:R1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93253,7 +93253,7 @@
         <v>31</v>
       </c>
       <c r="O1657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1657" t="n">
         <v>0</v>
@@ -93541,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93595,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93649,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93703,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93757,7 +93765,225 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>485</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>481.2000122070312</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>495.1499938964844</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>495.1499938964844</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>82326</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>499.8500061035156</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>499.8500061035156</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>475.2000122070312</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>478.75</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>478.75</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>62925</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>481.4500122070312</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>470</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>474.4500122070312</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>474.4500122070312</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>62711</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>483.8999938964844</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>485.5499877929688</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>475.5499877929688</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>483.25</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>483.25</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>65429</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1670"/>
+  <dimension ref="A1:R1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93821,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93875,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93929,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93983,7 +93989,279 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>504.25</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>472.3500061035156</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>501.75</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>501.75</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>174512</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>514.8499755859375</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>494.3999938964844</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>496.1000061035156</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>496.1000061035156</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>72948</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>496.2999877929688</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>504.9500122070312</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>494.9500122070312</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>496.8500061035156</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>496.8500061035156</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>59902</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>496</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>516</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>496</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>512.2999877929688</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>512.2999877929688</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>165234</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>516.8499755859375</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>516.8499755859375</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>511.5</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>511.5</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>61649</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1675"/>
+  <dimension ref="A1:R1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93925,7 +93925,7 @@
         <v>33</v>
       </c>
       <c r="O1669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1669" t="n">
         <v>0</v>
@@ -94045,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94099,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94153,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94207,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94261,7 +94269,279 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>515</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>497.1499938964844</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>91672</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>505</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>506.9500122070312</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>500.1499938964844</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>504.1000061035156</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>504.1000061035156</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>46031</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>505</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>506.2000122070312</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>492</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>493.3999938964844</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>493.3999938964844</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>60673</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>492.0499877929688</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>499.8500061035156</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>488.0499877929688</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>492.3500061035156</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>492.3500061035156</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>76293</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>493</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>499</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>490</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>72090</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1680"/>
+  <dimension ref="A1:R1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94261,7 +94261,7 @@
         <v>34</v>
       </c>
       <c r="O1675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1675" t="n">
         <v>0</v>
@@ -94325,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94379,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94433,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94487,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94541,7 +94549,279 @@
       <c r="Q1680" t="n">
         <v>1</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>493.5</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>497.8500061035156</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>479.1000061035156</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>120015</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>481</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>487.25</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>476.1000061035156</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>479.2999877929688</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>479.2999877929688</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>89881</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>484</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>478.2000122070312</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>478.2000122070312</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>59182</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>480</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>483.3500061035156</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>475.2000122070312</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>477.5499877929688</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>477.5499877929688</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>92299</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>477.6000061035156</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>481.3500061035156</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>469.1499938964844</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>471.25</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>471.25</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>96378</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1685"/>
+  <dimension ref="A1:R1690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94605,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94659,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94713,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94767,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94821,7 +94829,279 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>466</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>472</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>458.3500061035156</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>460.2000122070312</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>460.2000122070312</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>118162</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>460.2000122070312</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>460.2000122070312</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>469.25</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>469.25</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>201073</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>477.6000061035156</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>469.0499877929688</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>469.0499877929688</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>54706</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>470.2999877929688</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>466.4500122070312</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>470.7999877929688</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>470.7999877929688</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>51163</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>473.7000122070312</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>478.6000061035156</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>469.1000061035156</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>469.1000061035156</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>74136</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1690"/>
+  <dimension ref="A1:R1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94885,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94939,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94993,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95047,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95101,7 +95109,279 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>476</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>482</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>472.2999877929688</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>480.6000061035156</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>480.6000061035156</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>75904</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>481.7999877929688</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>485.3999938964844</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>467.7000122070312</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>104702</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>470.25</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>472.2000122070312</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>465.1499938964844</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>467.1499938964844</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>467.1499938964844</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>68919</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>499</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>457.6499938964844</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>179356</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>508.9500122070312</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>488.4500122070312</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>316085</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1695"/>
+  <dimension ref="A1:R1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95165,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95219,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95273,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95327,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95381,7 +95389,279 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>513.9500122070312</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>506.1000061035156</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>506.1000061035156</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>127974</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>509</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>509</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>496.7999877929688</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>499.25</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>499.25</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>59926</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>500.8999938964844</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>512.6500244140625</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>491.6499938964844</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>500.7000122070312</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>500.7000122070312</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>124872</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>502.75</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>502.75</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>493</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>498.3500061035156</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>498.3500061035156</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>58452</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>501.9500122070312</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>498</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>498.2999877929688</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>498.2999877929688</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>57109</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1700"/>
+  <dimension ref="A1:R1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95325,7 +95325,7 @@
         <v>38</v>
       </c>
       <c r="O1694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1694" t="n">
         <v>0</v>
@@ -95445,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95499,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95553,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95607,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95661,7 +95669,225 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>498.1499938964844</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>477.3999938964844</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>480.8500061035156</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>480.8500061035156</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>185339</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>485.6499938964844</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>491.7000122070312</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>480.3500061035156</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>484.1000061035156</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>484.1000061035156</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>56504</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>477</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>493.5499877929688</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>471.1499938964844</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>483.8500061035156</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>483.8500061035156</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>122037</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>483.8500061035156</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>494</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>478</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>117860</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1704"/>
+  <dimension ref="A1:R1709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95437,7 +95437,7 @@
         <v>39</v>
       </c>
       <c r="O1696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1696" t="n">
         <v>0</v>
@@ -95725,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95779,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95833,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95887,7 +95893,279 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>497</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>468.1000061035156</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>473.25</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>473.25</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>131446</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>472</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>483.3500061035156</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>465.2999877929688</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>480.1499938964844</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>480.1499938964844</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>61412</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>492</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>495</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>485</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>489.25</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>489.25</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>124337</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>491.7999877929688</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>495</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>493.1499938964844</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>493.1499938964844</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>75905</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>498</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>503.2000122070312</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>486.1499938964844</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>500.75</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>500.75</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>120921</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1709"/>
+  <dimension ref="A1:R1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95949,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>1</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -96003,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96057,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96111,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96165,7 +96173,279 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>505</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>512.3499755859375</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>496.2000122070312</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>498.6499938964844</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>498.6499938964844</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>96203</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>495</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>503.1000061035156</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>491</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>494.8999938964844</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>494.8999938964844</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>59083</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>490</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>505</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>490</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>498.4500122070312</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>498.4500122070312</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>54586</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>501.1000061035156</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>504.5499877929688</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>493.1000061035156</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>497.6499938964844</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>497.6499938964844</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>72576</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>493</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>494.9500122070312</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>482.3999938964844</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>487.6499938964844</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>487.6499938964844</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>82094</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1714"/>
+  <dimension ref="A1:R1719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,279 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>489</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>495.7999877929688</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>477</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>491.3999938964844</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>491.3999938964844</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>143315</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>491.3999938964844</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>491.8999938964844</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>461.3500061035156</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>464.75</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>464.75</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>204484</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>457.6499938964844</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>466.6000061035156</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>442</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>233944</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>448.4500122070312</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>448.4500122070312</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>426.0499877929688</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>426.0499877929688</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>192359</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>426.0499877929688</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>431</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>407.1000061035156</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>409.3999938964844</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>409.3999938964844</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>220040</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1719"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96221,7 +96221,7 @@
         <v>42</v>
       </c>
       <c r="O1710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1710" t="n">
         <v>0</v>
@@ -96509,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96563,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96617,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96671,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96725,7 +96733,225 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>410.8999938964844</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>405.6000061035156</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>411.8500061035156</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>411.8500061035156</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>230075</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>411.6000061035156</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>419.6000061035156</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>409.7999877929688</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>409.7999877929688</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>147386</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>411.3999938964844</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>415.9500122070312</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>408</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>123956</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>403.5499877929688</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>410.1499938964844</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>410.1499938964844</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>125263</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1723"/>
+  <dimension ref="A1:R1729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96789,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96843,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>2</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96897,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96951,7 +96957,333 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>410.1499938964844</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>410.1499938964844</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>410.1499938964844</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>410.1499938964844</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>410.1499938964844</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>421</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>421</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>407.1000061035156</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>412.6499938964844</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>412.6499938964844</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>73916</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>412.4500122070312</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>414.6000061035156</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>406.0499877929688</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>407.6499938964844</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>407.6499938964844</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>154465</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>416.0499877929688</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>406.0499877929688</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>411</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>411</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>166460</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>412.1499938964844</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>425.6000061035156</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>411</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>414</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>414</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>179728</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>414.0499877929688</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>415.3500061035156</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>397</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>399.5499877929688</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>399.5499877929688</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>199986</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1729"/>
+  <dimension ref="A1:R1733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97013,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97067,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97121,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97175,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97229,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97283,7 +97293,225 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>403.3999938964844</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>402</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>402</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>78961</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>412.9500122070312</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>412.9500122070312</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>398.3999938964844</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>402.8500061035156</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>402.8500061035156</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>84770</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>389</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>393.2000122070312</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>393.2000122070312</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>85228</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>396.5499877929688</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>398.2999877929688</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>388.6000061035156</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>391.75</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>391.75</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>84611</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1733"/>
+  <dimension ref="A1:R1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97349,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97403,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97457,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97511,7 +97517,225 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>397.1499938964844</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>397.1499938964844</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>389.8500061035156</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>389.8500061035156</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>98113</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>390.8999938964844</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>413.9500122070312</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>390.8999938964844</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>402.3500061035156</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>402.3500061035156</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>206802</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>399</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>399.6000061035156</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>386.3999938964844</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>100350</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>389.8500061035156</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>395.75</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>387.7999877929688</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>388.7999877929688</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>388.7999877929688</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>90374</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1737"/>
+  <dimension ref="A1:R1742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97573,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97627,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97681,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97735,7 +97741,279 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>394.6499938964844</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>400.3999938964844</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>390.1000061035156</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>390.1000061035156</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>103327</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>390.9500122070312</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>396.3999938964844</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>388</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>389.2999877929688</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>389.2999877929688</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>116961</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>390.8500061035156</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>393.8999938964844</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>382.1000061035156</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>385</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>385</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>280802</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>385.25</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>394</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>385.25</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>387.7999877929688</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>387.7999877929688</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>99976</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>387.7999877929688</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>389.8999938964844</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>381.1000061035156</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>382.8999938964844</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>382.8999938964844</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>220224</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1742"/>
+  <dimension ref="A1:R1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97797,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97851,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97905,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97959,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98013,7 +98021,279 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>385</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>389.4500122070312</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>381.5499877929688</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>385.1000061035156</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>385.1000061035156</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>157450</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>386.0499877929688</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>391</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>384.2000122070312</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>389</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>389</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>149347</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>392</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>395.7999877929688</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>387</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>390.1499938964844</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>390.1499938964844</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>211487</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>390.7999877929688</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>391.2999877929688</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>384</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>385.6000061035156</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>385.6000061035156</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>144512</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>385</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>394</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>383.6000061035156</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>388.1000061035156</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>388.1000061035156</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>379820</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1747"/>
+  <dimension ref="A1:R1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98077,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98131,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98185,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98239,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98293,7 +98301,529 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>396.4500122070312</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>383.9500122070312</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>387.0499877929688</v>
+      </c>
+      <c r="F1748" t="inlineStr"/>
+      <c r="G1748" t="n">
+        <v>433834</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>387.0499877929688</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>387.0499877929688</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>379</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="F1749" t="inlineStr"/>
+      <c r="G1749" t="n">
+        <v>321453</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>383</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>392</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>383</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>388.3999938964844</v>
+      </c>
+      <c r="F1750" t="inlineStr"/>
+      <c r="G1750" t="n">
+        <v>298220</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>388.3999938964844</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>388.9500122070312</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>381.2000122070312</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>382.6499938964844</v>
+      </c>
+      <c r="F1751" t="inlineStr"/>
+      <c r="G1751" t="n">
+        <v>179118</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>382.6000061035156</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>388</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>375.3500061035156</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>387.0499877929688</v>
+      </c>
+      <c r="F1752" t="inlineStr"/>
+      <c r="G1752" t="n">
+        <v>170360</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>387.0499877929688</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>392.1000061035156</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>385.9500122070312</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="F1753" t="inlineStr"/>
+      <c r="G1753" t="n">
+        <v>131021</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>392.7000122070312</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>383.0499877929688</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>384.7000122070312</v>
+      </c>
+      <c r="F1754" t="inlineStr"/>
+      <c r="G1754" t="n">
+        <v>115594</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>386</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>388.1000061035156</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>381.8999938964844</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>384.1499938964844</v>
+      </c>
+      <c r="F1755" t="inlineStr"/>
+      <c r="G1755" t="n">
+        <v>77922</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>377.0499877929688</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>386</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>375.75</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="F1756" t="inlineStr"/>
+      <c r="G1756" t="n">
+        <v>69442</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>381.0499877929688</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>382.4500122070312</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>373.6499938964844</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>375.1000061035156</v>
+      </c>
+      <c r="F1757" t="inlineStr"/>
+      <c r="G1757" t="n">
+        <v>100722</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1757"/>
+  <dimension ref="A1:R1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98355,7 +98355,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98407,7 +98409,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98459,7 +98463,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98511,7 +98517,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98563,7 +98571,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98615,7 +98625,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98667,7 +98679,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98719,7 +98733,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98771,7 +98787,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98823,7 +98841,217 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>375.6000061035156</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>377.1499938964844</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>371.1000061035156</v>
+      </c>
+      <c r="F1758" t="inlineStr"/>
+      <c r="G1758" t="n">
+        <v>122218</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>372</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>373.0499877929688</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>369.0499877929688</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>371.9500122070312</v>
+      </c>
+      <c r="F1759" t="inlineStr"/>
+      <c r="G1759" t="n">
+        <v>87906</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>371.9500122070312</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>381.3999938964844</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>371.1000061035156</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>380.0499877929688</v>
+      </c>
+      <c r="F1760" t="inlineStr"/>
+      <c r="G1760" t="n">
+        <v>96155</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>381.1499938964844</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>387.9500122070312</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>379.5499877929688</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>384.6499938964844</v>
+      </c>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="n">
+        <v>149757</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1761"/>
+  <dimension ref="A1:R1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98895,7 +98895,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98947,7 +98949,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -98999,7 +99003,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99051,7 +99057,269 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>384.6499938964844</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>385.2999877929688</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>377.25</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>380</v>
+      </c>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="n">
+        <v>93435</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>378</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>384.2000122070312</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>374.25</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>380.1499938964844</v>
+      </c>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="n">
+        <v>73658</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>386</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>384.1000061035156</v>
+      </c>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="n">
+        <v>50036</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>384.1000061035156</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>390.0499877929688</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>383.7000122070312</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>386.1000061035156</v>
+      </c>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="n">
+        <v>88477</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>385.0499877929688</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>388.9500122070312</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>384.0499877929688</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>385.4500122070312</v>
+      </c>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="n">
+        <v>57444</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1766"/>
+  <dimension ref="A1:R1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98887,7 +98887,7 @@
         <v>52</v>
       </c>
       <c r="O1758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1758" t="n">
         <v>0</v>
@@ -99111,7 +99111,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99163,7 +99165,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99215,7 +99219,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99267,7 +99273,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99319,7 +99327,269 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>385.4500122070312</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>385.7999877929688</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>370.7000122070312</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="n">
+        <v>83186</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>373.6000061035156</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>375.9500122070312</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>367.5499877929688</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="n">
+        <v>69174</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>374.1499938964844</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>368</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>371.0499877929688</v>
+      </c>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="n">
+        <v>60417</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>374.8999938964844</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>374.8999938964844</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>367.8999938964844</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="n">
+        <v>47391</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>368.5</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>370.9500122070312</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>360</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>364.2999877929688</v>
+      </c>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="n">
+        <v>103056</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1771"/>
+  <dimension ref="A1:R1776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99265,7 +99265,7 @@
         <v>1</v>
       </c>
       <c r="O1765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1765" t="n">
         <v>0</v>
@@ -99381,7 +99381,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99433,7 +99435,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99485,7 +99489,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99537,7 +99543,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99589,7 +99597,269 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>362.2999877929688</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>352.7999877929688</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>353.7999877929688</v>
+      </c>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="n">
+        <v>112580</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>350.75</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>356.8999938964844</v>
+      </c>
+      <c r="F1773" t="inlineStr"/>
+      <c r="G1773" t="n">
+        <v>92195</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>356.8999938964844</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>361.2000122070312</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>355.4500122070312</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>358.4500122070312</v>
+      </c>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="n">
+        <v>44096</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>360</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>367</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>360</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>364.1000061035156</v>
+      </c>
+      <c r="F1775" t="inlineStr"/>
+      <c r="G1775" t="n">
+        <v>65133</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>364.3999938964844</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>366.9500122070312</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>362.1499938964844</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="F1776" t="inlineStr"/>
+      <c r="G1776" t="n">
+        <v>45606</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1776"/>
+  <dimension ref="A1:R1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" t="n">
         <v>1</v>
@@ -99651,7 +99651,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99703,7 +99705,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99755,7 +99759,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99807,7 +99813,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99859,7 +99867,269 @@
       <c r="Q1776" t="n">
         <v>2</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>361</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>372.5499877929688</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>360.3500061035156</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>371.2999877929688</v>
+      </c>
+      <c r="F1777" t="inlineStr"/>
+      <c r="G1777" t="n">
+        <v>72026</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>375</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>365.75</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>367.6499938964844</v>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="n">
+        <v>33526</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>368</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>368.1499938964844</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>361.6499938964844</v>
+      </c>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="n">
+        <v>41203</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>361.8500061035156</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>360.3500061035156</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>364.7000122070312</v>
+      </c>
+      <c r="F1780" t="inlineStr"/>
+      <c r="G1780" t="n">
+        <v>41825</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>365.8500061035156</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>357</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>358.7000122070312</v>
+      </c>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="n">
+        <v>44946</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1781"/>
+  <dimension ref="A1:R1785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99921,7 +99921,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -99973,7 +99975,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100025,7 +100029,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100077,7 +100083,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100129,7 +100137,217 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>357</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>368.4500122070312</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>351</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>362.4500122070312</v>
+      </c>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="n">
+        <v>116775</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>361.0499877929688</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>362.2000122070312</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>342</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>354</v>
+      </c>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="n">
+        <v>167948</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>362.3500061035156</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="n">
+        <v>59103</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>355.5499877929688</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>355.5499877929688</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>369.3999938964844</v>
+      </c>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="n">
+        <v>103237</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1785"/>
+  <dimension ref="A1:R1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100191,7 +100191,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100243,7 +100245,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100295,27 +100299,29 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B1785" t="n">
-        <v>355.5499877929688</v>
+        <v>359.6000061035156</v>
       </c>
       <c r="C1785" t="n">
-        <v>371.25</v>
+        <v>361.25</v>
       </c>
       <c r="D1785" t="n">
-        <v>355.5499877929688</v>
+        <v>352.1000061035156</v>
       </c>
       <c r="E1785" t="n">
-        <v>369.3999938964844</v>
+        <v>356.1000061035156</v>
       </c>
       <c r="F1785" t="inlineStr"/>
       <c r="G1785" t="n">
-        <v>103237</v>
+        <v>30577</v>
       </c>
       <c r="H1785" t="n">
         <v>2025</v>
@@ -100324,7 +100330,7 @@
         <v>1</v>
       </c>
       <c r="J1785" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1785" t="n">
         <v>0</v>
@@ -100348,6 +100354,320 @@
         <v>0</v>
       </c>
       <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>355.5499877929688</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>355.5499877929688</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>369.3999938964844</v>
+      </c>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="n">
+        <v>103237</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>368.8500061035156</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>371</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>363.6000061035156</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="n">
+        <v>29654</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>370.1499938964844</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>367</v>
+      </c>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="n">
+        <v>43413</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>367</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>373.8500061035156</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>359.3999938964844</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>361.7999877929688</v>
+      </c>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="n">
+        <v>69843</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>362.1499938964844</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>376</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>361.7999877929688</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>369.75</v>
+      </c>
+      <c r="F1790" t="inlineStr"/>
+      <c r="G1790" t="n">
+        <v>123652</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>371</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>374.25</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="F1791" t="inlineStr"/>
+      <c r="G1791" t="n">
+        <v>46136</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1791"/>
+  <dimension ref="A1:R1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100237,7 +100237,7 @@
         <v>5</v>
       </c>
       <c r="O1783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1783" t="n">
         <v>0</v>
@@ -100353,7 +100353,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100459,7 +100461,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100511,7 +100515,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100563,7 +100569,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100615,7 +100623,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100667,7 +100677,269 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>354</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>355.3999938964844</v>
+      </c>
+      <c r="F1792" t="inlineStr"/>
+      <c r="G1792" t="n">
+        <v>44922</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>359</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>359</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>348</v>
+      </c>
+      <c r="F1793" t="inlineStr"/>
+      <c r="G1793" t="n">
+        <v>55887</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>349.7000122070312</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>349.7000122070312</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>337</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>338.6499938964844</v>
+      </c>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="n">
+        <v>104241</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>341.9500122070312</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>342.6000061035156</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>333.1499938964844</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>336.2999877929688</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>97634</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>317.9500122070312</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>320.2999877929688</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>120252</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1796"/>
+  <dimension ref="A1:R1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100615,7 +100615,7 @@
         <v>6</v>
       </c>
       <c r="O1790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1790" t="n">
         <v>0</v>
@@ -100731,7 +100731,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100783,7 +100785,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100835,7 +100839,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100887,7 +100893,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -100939,7 +100947,269 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>316</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>301.3999938964844</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>252984</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>309</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>309</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>280.8999938964844</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>515992</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>278</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>297.0499877929688</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>287.7000122070312</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>279051</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>279.1000061035156</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>281829</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>287.0499877929688</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>278</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="n">
+        <v>288998</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1801"/>
+  <dimension ref="A1:R1811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100413,23 +100413,23 @@
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1787" t="n">
-        <v>368.8500061035156</v>
+        <v>369</v>
       </c>
       <c r="C1787" t="n">
-        <v>371</v>
+        <v>372.9500122070312</v>
       </c>
       <c r="D1787" t="n">
-        <v>363.6000061035156</v>
+        <v>363.0499877929688</v>
       </c>
       <c r="E1787" t="n">
-        <v>366.7000122070312</v>
+        <v>370.7999877929688</v>
       </c>
       <c r="F1787" t="inlineStr"/>
       <c r="G1787" t="n">
-        <v>29654</v>
+        <v>48859</v>
       </c>
       <c r="H1787" t="n">
         <v>2025</v>
@@ -100438,7 +100438,7 @@
         <v>2</v>
       </c>
       <c r="J1787" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1787" t="n">
         <v>0</v>
@@ -100450,7 +100450,7 @@
         <v>0</v>
       </c>
       <c r="N1787" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1787" t="n">
         <v>0</v>
@@ -100461,29 +100461,27 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1787" t="inlineStr"/>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1788" t="n">
-        <v>365</v>
+        <v>368.8500061035156</v>
       </c>
       <c r="C1788" t="n">
-        <v>370.1499938964844</v>
+        <v>371</v>
       </c>
       <c r="D1788" t="n">
-        <v>364.9500122070312</v>
+        <v>363.6000061035156</v>
       </c>
       <c r="E1788" t="n">
-        <v>367</v>
+        <v>366.7000122070312</v>
       </c>
       <c r="F1788" t="inlineStr"/>
       <c r="G1788" t="n">
-        <v>43413</v>
+        <v>29654</v>
       </c>
       <c r="H1788" t="n">
         <v>2025</v>
@@ -100492,7 +100490,7 @@
         <v>2</v>
       </c>
       <c r="J1788" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1788" t="n">
         <v>0</v>
@@ -100521,23 +100519,23 @@
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1789" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>370.1499938964844</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="E1789" t="n">
         <v>367</v>
-      </c>
-      <c r="C1789" t="n">
-        <v>373.8500061035156</v>
-      </c>
-      <c r="D1789" t="n">
-        <v>359.3999938964844</v>
-      </c>
-      <c r="E1789" t="n">
-        <v>361.7999877929688</v>
       </c>
       <c r="F1789" t="inlineStr"/>
       <c r="G1789" t="n">
-        <v>69843</v>
+        <v>43413</v>
       </c>
       <c r="H1789" t="n">
         <v>2025</v>
@@ -100546,7 +100544,7 @@
         <v>2</v>
       </c>
       <c r="J1789" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1789" t="n">
         <v>0</v>
@@ -100575,23 +100573,23 @@
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1790" t="n">
-        <v>362.1499938964844</v>
+        <v>367</v>
       </c>
       <c r="C1790" t="n">
-        <v>376</v>
+        <v>373.8500061035156</v>
       </c>
       <c r="D1790" t="n">
+        <v>359.3999938964844</v>
+      </c>
+      <c r="E1790" t="n">
         <v>361.7999877929688</v>
-      </c>
-      <c r="E1790" t="n">
-        <v>369.75</v>
       </c>
       <c r="F1790" t="inlineStr"/>
       <c r="G1790" t="n">
-        <v>123652</v>
+        <v>69843</v>
       </c>
       <c r="H1790" t="n">
         <v>2025</v>
@@ -100600,7 +100598,7 @@
         <v>2</v>
       </c>
       <c r="J1790" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1790" t="n">
         <v>0</v>
@@ -100615,7 +100613,7 @@
         <v>6</v>
       </c>
       <c r="O1790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1790" t="n">
         <v>0</v>
@@ -100629,23 +100627,23 @@
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1791" t="n">
-        <v>371</v>
+        <v>362.1499938964844</v>
       </c>
       <c r="C1791" t="n">
-        <v>374.25</v>
+        <v>376</v>
       </c>
       <c r="D1791" t="n">
-        <v>365.25</v>
+        <v>361.7999877929688</v>
       </c>
       <c r="E1791" t="n">
-        <v>366.5</v>
+        <v>369.75</v>
       </c>
       <c r="F1791" t="inlineStr"/>
       <c r="G1791" t="n">
-        <v>46136</v>
+        <v>123652</v>
       </c>
       <c r="H1791" t="n">
         <v>2025</v>
@@ -100654,7 +100652,7 @@
         <v>2</v>
       </c>
       <c r="J1791" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1791" t="n">
         <v>0</v>
@@ -100669,7 +100667,7 @@
         <v>6</v>
       </c>
       <c r="O1791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1791" t="n">
         <v>0</v>
@@ -100683,23 +100681,23 @@
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1792" t="n">
-        <v>366.6499938964844</v>
+        <v>371</v>
       </c>
       <c r="C1792" t="n">
-        <v>366.6499938964844</v>
+        <v>374.25</v>
       </c>
       <c r="D1792" t="n">
-        <v>354</v>
+        <v>365.25</v>
       </c>
       <c r="E1792" t="n">
-        <v>355.3999938964844</v>
+        <v>366.5</v>
       </c>
       <c r="F1792" t="inlineStr"/>
       <c r="G1792" t="n">
-        <v>44922</v>
+        <v>46136</v>
       </c>
       <c r="H1792" t="n">
         <v>2025</v>
@@ -100708,7 +100706,7 @@
         <v>2</v>
       </c>
       <c r="J1792" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1792" t="n">
         <v>0</v>
@@ -100720,7 +100718,7 @@
         <v>0</v>
       </c>
       <c r="N1792" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1792" t="n">
         <v>0</v>
@@ -100737,23 +100735,23 @@
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1793" t="n">
-        <v>359</v>
+        <v>366.6499938964844</v>
       </c>
       <c r="C1793" t="n">
-        <v>359</v>
+        <v>366.6499938964844</v>
       </c>
       <c r="D1793" t="n">
-        <v>345.6000061035156</v>
+        <v>354</v>
       </c>
       <c r="E1793" t="n">
-        <v>348</v>
+        <v>355.3999938964844</v>
       </c>
       <c r="F1793" t="inlineStr"/>
       <c r="G1793" t="n">
-        <v>55887</v>
+        <v>44922</v>
       </c>
       <c r="H1793" t="n">
         <v>2025</v>
@@ -100762,7 +100760,7 @@
         <v>2</v>
       </c>
       <c r="J1793" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1793" t="n">
         <v>0</v>
@@ -100791,23 +100789,23 @@
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1794" t="n">
-        <v>349.7000122070312</v>
+        <v>359</v>
       </c>
       <c r="C1794" t="n">
-        <v>349.7000122070312</v>
+        <v>359</v>
       </c>
       <c r="D1794" t="n">
-        <v>337</v>
+        <v>345.6000061035156</v>
       </c>
       <c r="E1794" t="n">
-        <v>338.6499938964844</v>
+        <v>348</v>
       </c>
       <c r="F1794" t="inlineStr"/>
       <c r="G1794" t="n">
-        <v>104241</v>
+        <v>55887</v>
       </c>
       <c r="H1794" t="n">
         <v>2025</v>
@@ -100816,7 +100814,7 @@
         <v>2</v>
       </c>
       <c r="J1794" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1794" t="n">
         <v>0</v>
@@ -100845,23 +100843,23 @@
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1795" t="n">
-        <v>341.9500122070312</v>
+        <v>349.7000122070312</v>
       </c>
       <c r="C1795" t="n">
-        <v>342.6000061035156</v>
+        <v>349.7000122070312</v>
       </c>
       <c r="D1795" t="n">
-        <v>333.1499938964844</v>
+        <v>337</v>
       </c>
       <c r="E1795" t="n">
-        <v>336.2999877929688</v>
+        <v>338.6499938964844</v>
       </c>
       <c r="F1795" t="inlineStr"/>
       <c r="G1795" t="n">
-        <v>97634</v>
+        <v>104241</v>
       </c>
       <c r="H1795" t="n">
         <v>2025</v>
@@ -100870,7 +100868,7 @@
         <v>2</v>
       </c>
       <c r="J1795" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1795" t="n">
         <v>0</v>
@@ -100899,23 +100897,23 @@
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1796" t="n">
-        <v>336.5</v>
+        <v>341.9500122070312</v>
       </c>
       <c r="C1796" t="n">
-        <v>336.7000122070312</v>
+        <v>342.6000061035156</v>
       </c>
       <c r="D1796" t="n">
-        <v>317.9500122070312</v>
+        <v>333.1499938964844</v>
       </c>
       <c r="E1796" t="n">
-        <v>320.2999877929688</v>
+        <v>336.2999877929688</v>
       </c>
       <c r="F1796" t="inlineStr"/>
       <c r="G1796" t="n">
-        <v>120252</v>
+        <v>97634</v>
       </c>
       <c r="H1796" t="n">
         <v>2025</v>
@@ -100924,7 +100922,7 @@
         <v>2</v>
       </c>
       <c r="J1796" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1796" t="n">
         <v>0</v>
@@ -100953,23 +100951,23 @@
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1797" t="n">
-        <v>316</v>
+        <v>336.5</v>
       </c>
       <c r="C1797" t="n">
-        <v>319.0499877929688</v>
+        <v>336.7000122070312</v>
       </c>
       <c r="D1797" t="n">
-        <v>301.3999938964844</v>
+        <v>317.9500122070312</v>
       </c>
       <c r="E1797" t="n">
-        <v>304.9500122070312</v>
+        <v>320.2999877929688</v>
       </c>
       <c r="F1797" t="inlineStr"/>
       <c r="G1797" t="n">
-        <v>252984</v>
+        <v>120252</v>
       </c>
       <c r="H1797" t="n">
         <v>2025</v>
@@ -100978,7 +100976,7 @@
         <v>2</v>
       </c>
       <c r="J1797" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1797" t="n">
         <v>0</v>
@@ -100990,7 +100988,7 @@
         <v>0</v>
       </c>
       <c r="N1797" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1797" t="n">
         <v>0</v>
@@ -101001,27 +100999,29 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1798" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C1798" t="n">
-        <v>309</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D1798" t="n">
-        <v>279.5</v>
+        <v>301.3999938964844</v>
       </c>
       <c r="E1798" t="n">
-        <v>280.8999938964844</v>
+        <v>304.9500122070312</v>
       </c>
       <c r="F1798" t="inlineStr"/>
       <c r="G1798" t="n">
-        <v>515992</v>
+        <v>252984</v>
       </c>
       <c r="H1798" t="n">
         <v>2025</v>
@@ -101030,7 +101030,7 @@
         <v>2</v>
       </c>
       <c r="J1798" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1798" t="n">
         <v>0</v>
@@ -101053,27 +101053,29 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1799" t="n">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C1799" t="n">
-        <v>297.0499877929688</v>
+        <v>309</v>
       </c>
       <c r="D1799" t="n">
-        <v>277.5499877929688</v>
+        <v>279.5</v>
       </c>
       <c r="E1799" t="n">
-        <v>287.7000122070312</v>
+        <v>280.8999938964844</v>
       </c>
       <c r="F1799" t="inlineStr"/>
       <c r="G1799" t="n">
-        <v>279051</v>
+        <v>515992</v>
       </c>
       <c r="H1799" t="n">
         <v>2025</v>
@@ -101082,7 +101084,7 @@
         <v>2</v>
       </c>
       <c r="J1799" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1799" t="n">
         <v>0</v>
@@ -101105,27 +101107,29 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1800" t="n">
-        <v>289.5</v>
+        <v>278</v>
       </c>
       <c r="C1800" t="n">
-        <v>293.9500122070312</v>
+        <v>297.0499877929688</v>
       </c>
       <c r="D1800" t="n">
-        <v>279.1000061035156</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="E1800" t="n">
-        <v>283.5499877929688</v>
+        <v>287.7000122070312</v>
       </c>
       <c r="F1800" t="inlineStr"/>
       <c r="G1800" t="n">
-        <v>281829</v>
+        <v>279051</v>
       </c>
       <c r="H1800" t="n">
         <v>2025</v>
@@ -101134,7 +101138,7 @@
         <v>2</v>
       </c>
       <c r="J1800" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1800" t="n">
         <v>0</v>
@@ -101157,27 +101161,29 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1801" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>279.1000061035156</v>
+      </c>
+      <c r="E1801" t="n">
         <v>283.5499877929688</v>
-      </c>
-      <c r="C1801" t="n">
-        <v>287.0499877929688</v>
-      </c>
-      <c r="D1801" t="n">
-        <v>278</v>
-      </c>
-      <c r="E1801" t="n">
-        <v>279.25</v>
       </c>
       <c r="F1801" t="inlineStr"/>
       <c r="G1801" t="n">
-        <v>288998</v>
+        <v>281829</v>
       </c>
       <c r="H1801" t="n">
         <v>2025</v>
@@ -101186,7 +101192,7 @@
         <v>2</v>
       </c>
       <c r="J1801" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1801" t="n">
         <v>0</v>
@@ -101207,9 +101213,533 @@
         <v>0</v>
       </c>
       <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>287.0499877929688</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>278</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="n">
+        <v>288998</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1802" t="n">
         <v>2</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="J1802" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>277.9500122070312</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>270.0499877929688</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="n">
+        <v>189527</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>276.6000061035156</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>270</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>271.0499877929688</v>
+      </c>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="n">
+        <v>146979</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="n">
+        <v>251964</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>264.3500061035156</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>243.3999938964844</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>248.3000030517578</v>
+      </c>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="n">
+        <v>1242378</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>251.6799926757812</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>252.1000061035156</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>241.3099975585938</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>245.0099945068359</v>
+      </c>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="n">
+        <v>291481</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>245</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>248.4299926757812</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>238.1999969482422</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>242.4600067138672</v>
+      </c>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="n">
+        <v>310540</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>263.3800048828125</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>242</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>255.0200042724609</v>
+      </c>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="n">
+        <v>343085</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>255.0500030517578</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>263.989990234375</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>254.2299957275391</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>257.1000061035156</v>
+      </c>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="n">
+        <v>261883</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>256.6000061035156</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>283.6900024414062</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>255.2100067138672</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>270.8200073242188</v>
+      </c>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="n">
+        <v>939290</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1811"/>
+  <dimension ref="A1:R1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100461,7 +100461,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -101323,7 +101325,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101375,7 +101379,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101427,7 +101433,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101479,7 +101487,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101531,7 +101541,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101575,7 +101587,7 @@
         <v>10</v>
       </c>
       <c r="O1808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1808" t="n">
         <v>0</v>
@@ -101583,7 +101595,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101635,7 +101649,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101687,7 +101703,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101739,7 +101757,477 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>269.010009765625</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>272.3999938964844</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>260.5400085449219</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>261.3900146484375</v>
+      </c>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="n">
+        <v>236013</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>261.3900146484375</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>262.9100036621094</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>250.0500030517578</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>251.25</v>
+      </c>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="n">
+        <v>401534</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>251.4900054931641</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>256</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>243.6699981689453</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>245.5299987792969</v>
+      </c>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="n">
+        <v>315165</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>246</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>252.9799957275391</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>243.0099945068359</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>251.1399993896484</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>419013</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>255</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>258.3399963378906</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>252.75</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>254.0099945068359</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>306816</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>254.0099945068359</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>254.0099945068359</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>254.0099945068359</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>254.0099945068359</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>264.9400024414062</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>274.7799987792969</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>264.9400024414062</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>269.7699890136719</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>341708</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>270.1000061035156</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>275</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>261.3999938964844</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>264.0299987792969</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>444411</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>264.8999938964844</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>284.8999938964844</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>268.6000061035156</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>478873</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1820"/>
+  <dimension ref="A1:R1829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
@@ -101811,7 +101811,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101863,7 +101865,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -101915,7 +101919,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -101967,7 +101973,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102019,7 +102027,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102071,7 +102081,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102123,7 +102135,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102175,7 +102189,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102227,7 +102243,477 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>272.1000061035156</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>275.4100036621094</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>265</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>266.7900085449219</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>447159</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>267.7999877929688</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>272.989990234375</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>264.3800048828125</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>456710</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>266.2799987792969</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>267.989990234375</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>261.9700012207031</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>265.1400146484375</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>275174</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>264.2999877929688</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>273.8399963378906</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>262.0199890136719</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>265.760009765625</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>633753</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>274.3399963378906</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>259.8699951171875</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>261.6000061035156</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>302995</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>263.3999938964844</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>261.3500061035156</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>266.25</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>120379</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>269.8500061035156</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>257.6000061035156</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>109919</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>267.2000122070312</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>281.25</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>161421</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>276.3999938964844</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>277.8999938964844</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>267</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>270.8999938964844</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>135056</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1829"/>
+  <dimension ref="A1:R1833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102235,7 +102235,7 @@
         <v>12</v>
       </c>
       <c r="O1820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1820" t="n">
         <v>0</v>
@@ -102297,7 +102297,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102349,7 +102351,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102401,7 +102405,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102453,7 +102459,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102505,7 +102513,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102557,7 +102567,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102609,7 +102621,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102661,7 +102675,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102713,7 +102729,217 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>265</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>250.3000030517578</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>263.7999877929688</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>187241</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>265.7000122070312</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>272.1499938964844</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>270.7000122070312</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>134270</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>269</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>269.3500061035156</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>261.3500061035156</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>265.8999938964844</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>148020</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>269.8500061035156</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>278.25</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>272.5499877929688</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>138347</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1833"/>
+  <dimension ref="A1:R1836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="R170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="R178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="R190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="R215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -14750,7 +14750,7 @@
         <v>2</v>
       </c>
       <c r="R255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -15758,7 +15758,7 @@
         <v>2</v>
       </c>
       <c r="R273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -20070,7 +20070,7 @@
         <v>1</v>
       </c>
       <c r="R350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -23710,7 +23710,7 @@
         <v>2</v>
       </c>
       <c r="R415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -26846,7 +26846,7 @@
         <v>2</v>
       </c>
       <c r="R471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -28470,7 +28470,7 @@
         <v>2</v>
       </c>
       <c r="R500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -29590,7 +29590,7 @@
         <v>2</v>
       </c>
       <c r="R520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -30094,7 +30094,7 @@
         <v>1</v>
       </c>
       <c r="R529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -31046,7 +31046,7 @@
         <v>2</v>
       </c>
       <c r="R546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -32558,7 +32558,7 @@
         <v>2</v>
       </c>
       <c r="R573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -33846,7 +33846,7 @@
         <v>1</v>
       </c>
       <c r="R596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -34574,7 +34574,7 @@
         <v>2</v>
       </c>
       <c r="R609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -37822,7 +37822,7 @@
         <v>0</v>
       </c>
       <c r="R667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -38606,7 +38606,7 @@
         <v>0</v>
       </c>
       <c r="R681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -39726,7 +39726,7 @@
         <v>0</v>
       </c>
       <c r="R701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -41742,7 +41742,7 @@
         <v>1</v>
       </c>
       <c r="R737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -43254,7 +43254,7 @@
         <v>1</v>
       </c>
       <c r="R764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -44206,7 +44206,7 @@
         <v>1</v>
       </c>
       <c r="R781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -46558,7 +46558,7 @@
         <v>1</v>
       </c>
       <c r="R823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -47622,7 +47622,7 @@
         <v>1</v>
       </c>
       <c r="R842" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -49134,7 +49134,7 @@
         <v>1</v>
       </c>
       <c r="R869" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870">
@@ -51374,7 +51374,7 @@
         <v>1</v>
       </c>
       <c r="R909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -53670,7 +53670,7 @@
         <v>0</v>
       </c>
       <c r="R950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -55182,7 +55182,7 @@
         <v>0</v>
       </c>
       <c r="R977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
@@ -57142,7 +57142,7 @@
         <v>1</v>
       </c>
       <c r="R1012" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -59102,7 +59102,7 @@
         <v>2</v>
       </c>
       <c r="R1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -60446,7 +60446,7 @@
         <v>0</v>
       </c>
       <c r="R1071" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -63750,7 +63750,7 @@
         <v>2</v>
       </c>
       <c r="R1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131">
@@ -67110,7 +67110,7 @@
         <v>0</v>
       </c>
       <c r="R1190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191">
@@ -67670,7 +67670,7 @@
         <v>1</v>
       </c>
       <c r="R1200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201">
@@ -68566,7 +68566,7 @@
         <v>0</v>
       </c>
       <c r="R1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
@@ -70806,7 +70806,7 @@
         <v>1</v>
       </c>
       <c r="R1256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257">
@@ -71086,7 +71086,7 @@
         <v>2</v>
       </c>
       <c r="R1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262">
@@ -72486,7 +72486,7 @@
         <v>2</v>
       </c>
       <c r="R1286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287">
@@ -73550,7 +73550,7 @@
         <v>2</v>
       </c>
       <c r="R1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1306">
@@ -79822,7 +79822,7 @@
         <v>0</v>
       </c>
       <c r="R1417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418">
@@ -80494,7 +80494,7 @@
         <v>0</v>
       </c>
       <c r="R1429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1430">
@@ -81950,7 +81950,7 @@
         <v>0</v>
       </c>
       <c r="R1455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1456">
@@ -83070,7 +83070,7 @@
         <v>0</v>
       </c>
       <c r="R1475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1476">
@@ -83294,7 +83294,7 @@
         <v>0</v>
       </c>
       <c r="R1479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480">
@@ -84414,7 +84414,7 @@
         <v>2</v>
       </c>
       <c r="R1499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -85982,7 +85982,7 @@
         <v>1</v>
       </c>
       <c r="R1527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1528">
@@ -86486,7 +86486,7 @@
         <v>2</v>
       </c>
       <c r="R1536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1537">
@@ -88278,7 +88278,7 @@
         <v>2</v>
       </c>
       <c r="R1568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1569">
@@ -91806,7 +91806,7 @@
         <v>1</v>
       </c>
       <c r="R1631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1632">
@@ -94550,7 +94550,7 @@
         <v>1</v>
       </c>
       <c r="R1680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1681">
@@ -95950,7 +95950,7 @@
         <v>1</v>
       </c>
       <c r="R1705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1706">
@@ -96062,7 +96062,7 @@
         <v>0</v>
       </c>
       <c r="R1707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1708">
@@ -101272,7 +101272,7 @@
         <v>2</v>
       </c>
       <c r="R1802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1803">
@@ -102783,7 +102783,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -102835,7 +102837,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -102887,7 +102891,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -102939,7 +102945,165 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>279.8999938964844</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>291.1000061035156</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>274.3999938964844</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>193366</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>289.3500061035156</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>299</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>194627</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>294</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>299.6499938964844</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>287.3999938964844</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>298.25</v>
+      </c>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="n">
+        <v>116609</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHLOG.NS.xlsx
+++ b/stock_historical_data/1d/MAHLOG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1845"/>
+  <dimension ref="A1:R1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103161,7 +103161,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103205,7 +103207,7 @@
         <v>17</v>
       </c>
       <c r="O1838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1838" t="n">
         <v>0</v>
@@ -103213,7 +103215,9 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -103265,7 +103269,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103317,7 +103323,9 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
@@ -103369,7 +103377,9 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
@@ -103421,7 +103431,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103473,7 +103485,9 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
@@ -103525,7 +103539,9 @@
       <c r="Q1844" t="n">
         <v>0</v>
       </c>
-      <c r="R1844" t="inlineStr"/>
+      <c r="R1844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -103577,7 +103593,529 @@
       <c r="Q1845" t="n">
         <v>0</v>
       </c>
-      <c r="R1845" t="inlineStr"/>
+      <c r="R1845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>294.3500061035156</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>308</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>294.3500061035156</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>303.2999877929688</v>
+      </c>
+      <c r="F1846" t="inlineStr"/>
+      <c r="G1846" t="n">
+        <v>106014</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>310</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>290.5499877929688</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="F1847" t="inlineStr"/>
+      <c r="G1847" t="n">
+        <v>152080</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>293</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>299.8500061035156</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>291.5499877929688</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="F1848" t="inlineStr"/>
+      <c r="G1848" t="n">
+        <v>90920</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>296.6499938964844</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>305</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>284.1499938964844</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="F1849" t="inlineStr"/>
+      <c r="G1849" t="n">
+        <v>150252</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>278</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>278</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>287.6499938964844</v>
+      </c>
+      <c r="F1850" t="inlineStr"/>
+      <c r="G1850" t="n">
+        <v>144460</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>296</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>308.3999938964844</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>296</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="F1851" t="inlineStr"/>
+      <c r="G1851" t="n">
+        <v>123163</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1851" t="inlineStr"/>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>301.3500061035156</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>304.4500122070312</v>
+      </c>
+      <c r="F1852" t="inlineStr"/>
+      <c r="G1852" t="n">
+        <v>83499</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1852" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1852" t="inlineStr"/>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>305.3999938964844</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>304.4500122070312</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="F1853" t="inlineStr"/>
+      <c r="G1853" t="n">
+        <v>134799</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1853" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1853" t="inlineStr"/>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>321.1499938964844</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>309</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>318.4500122070312</v>
+      </c>
+      <c r="F1854" t="inlineStr"/>
+      <c r="G1854" t="n">
+        <v>158626</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1854" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1854" t="inlineStr"/>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>320.0499877929688</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>335</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>317</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>328.7000122070312</v>
+      </c>
+      <c r="F1855" t="inlineStr"/>
+      <c r="G1855" t="n">
+        <v>299223</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1855" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1855" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
